--- a/01_Input/00_CO Validation/Chad - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Chad - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/yacin_kouadio_undp_org/Documents/UNDP CHAD/PROGRAMME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{98942119-6D57-F24D-A1B6-B6AEDF138E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13D4D76A-3B9C-4E2C-9874-852C85D58C16}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{98942119-6D57-F24D-A1B6-B6AEDF138E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB72509B-5D5A-40F0-9BD9-F3F0443A8B22}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="500" windowWidth="18160" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -373,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -461,12 +464,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -597,6 +693,42 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -621,80 +753,119 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1005,300 +1176,294 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="48.42578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
-    <col min="14" max="14" width="18.5703125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="5" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="5"/>
-    <col min="18" max="18" width="25" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="72" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="72" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="92" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="72" customWidth="1"/>
+    <col min="6" max="6" width="35" style="82" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="94" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="82" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="82" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="72" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="72"/>
+    <col min="12" max="12" width="48.42578125" style="72" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="72"/>
+    <col min="14" max="14" width="18.5703125" style="72" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="72" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="72"/>
+    <col min="18" max="18" width="25" style="72" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="71" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="68">
+    <row r="2" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A2" s="73">
         <v>135028</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="71">
+      <c r="D2" s="76">
         <v>1745000</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="79">
         <v>0</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="80">
         <v>7.85E-2</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="N2" s="80" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="N2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="82" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="23" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="79">
         <v>0</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="N3" s="80" t="s">
+      <c r="I3" s="81"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="N3" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="80" t="s">
+      <c r="O3" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-    </row>
-    <row r="4" spans="1:18" s="41" customFormat="1" ht="60.75">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="36" t="s">
+    </row>
+    <row r="4" spans="1:18" ht="60.75">
+      <c r="A4" s="102"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="84">
         <v>0</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="83">
         <v>150</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="45"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-    </row>
-    <row r="5" spans="1:18" s="41" customFormat="1" ht="30.75">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="36" t="s">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="86"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+    </row>
+    <row r="5" spans="1:18" ht="30.75">
+      <c r="A5" s="102"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="79">
         <v>0</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="87">
         <v>15000</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="45"/>
-      <c r="N5" s="80" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="86"/>
+      <c r="N5" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="82" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="60.75">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="23" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="84">
         <v>0</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="89">
         <v>50</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="45"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-    </row>
-    <row r="7" spans="1:18" s="41" customFormat="1" ht="30.75">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="36" t="s">
+      <c r="J6" s="90"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="86"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+    </row>
+    <row r="7" spans="1:18" ht="30.75">
+      <c r="A7" s="102"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="79">
         <v>0</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="45"/>
-      <c r="N7" s="80" t="s">
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="86"/>
+      <c r="N7" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="82" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="41" customFormat="1" ht="30.75">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="36" t="s">
+    <row r="8" spans="1:18" ht="30.75">
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="79">
         <v>0</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="83">
         <v>198</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="45"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="86"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="4"/>
-      <c r="C9" s="12"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="91"/>
+      <c r="G9" s="93"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1342,7 +1507,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -1420,16 +1585,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="65">
+      <c r="A2" s="48">
         <v>135028</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="57">
         <v>1745000</v>
       </c>
       <c r="E2" s="36" t="s">
@@ -1458,10 +1623,10 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="66"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="23" t="s">
         <v>25</v>
       </c>
@@ -1489,10 +1654,10 @@
       <c r="S3" s="41"/>
     </row>
     <row r="4" spans="1:19" s="41" customFormat="1" ht="60.75">
-      <c r="A4" s="66"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="36" t="s">
         <v>29</v>
       </c>
@@ -1513,10 +1678,10 @@
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:19" s="41" customFormat="1" ht="30.75">
-      <c r="A5" s="66"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="36" t="s">
         <v>32</v>
       </c>
@@ -1543,10 +1708,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="60.75">
-      <c r="A6" s="66"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1572,10 +1737,10 @@
       <c r="S6" s="41"/>
     </row>
     <row r="7" spans="1:19" s="41" customFormat="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="57"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="36" t="s">
         <v>25</v>
       </c>
@@ -1602,10 +1767,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="41" customFormat="1" ht="30.75">
-      <c r="A8" s="67"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="36" t="s">
         <v>41</v>
       </c>
@@ -1726,16 +1891,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.95">
-      <c r="A2" s="49">
+      <c r="A2" s="61">
         <v>135028</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="63">
         <v>1745000</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -1755,10 +1920,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="49"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="13" t="s">
         <v>25</v>
       </c>
@@ -1774,10 +1939,10 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="63.95">
-      <c r="A4" s="49"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="13" t="s">
         <v>20</v>
       </c>
@@ -1795,10 +1960,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="13" t="s">
         <v>32</v>
       </c>
@@ -1816,10 +1981,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="63.95">
-      <c r="A6" s="49"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="13" t="s">
         <v>35</v>
       </c>
@@ -1837,10 +2002,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.95">
-      <c r="A7" s="49"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="13" t="s">
         <v>41</v>
       </c>
@@ -1858,10 +2023,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="13" t="s">
         <v>41</v>
       </c>
@@ -1936,7 +2101,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="64" t="s">
         <v>47</v>
       </c>
       <c r="B2" t="s">
@@ -1947,7 +2112,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="64"/>
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -1956,7 +2121,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="64"/>
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -1965,7 +2130,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="65" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
@@ -1976,7 +2141,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="53"/>
+      <c r="A6" s="65"/>
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -1985,7 +2150,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="65"/>
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -1994,7 +2159,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -2003,7 +2168,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>41</v>
       </c>
@@ -2012,7 +2177,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="66" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
@@ -2023,7 +2188,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="66"/>
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -2032,7 +2197,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="67" t="s">
         <v>65</v>
       </c>
       <c r="B12" t="s">
@@ -2043,7 +2208,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="67"/>
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -2052,7 +2217,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="67"/>
       <c r="B14" t="s">
         <v>69</v>
       </c>
@@ -2103,17 +2268,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2362,14 +2516,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA903917-B6F3-48D5-8E13-468762282C8C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA903917-B6F3-48D5-8E13-468762282C8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
--- a/01_Input/00_CO Validation/Chad - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Chad - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/yacin_kouadio_undp_org/Documents/UNDP CHAD/PROGRAMME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{98942119-6D57-F24D-A1B6-B6AEDF138E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB72509B-5D5A-40F0-9BD9-F3F0443A8B22}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{98942119-6D57-F24D-A1B6-B6AEDF138E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A81601-8548-4469-97A0-AE675A1C2D5B}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="500" windowWidth="18160" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
   <si>
     <t>Project ID</t>
   </si>
@@ -68,160 +68,205 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Donors</t>
+  </si>
+  <si>
     <t>Gender (% female)</t>
   </si>
   <si>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Access vs Transition</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
+    <t>Projet d’appui au développement d’offres énergétiques (Chad)</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00135028</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>1 minigrid with a capacity of 78.5 kW is about to be installed</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Energy Access</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Number of households receiving electricity from the mini grid</t>
+  </si>
+  <si>
+    <t>750 HH</t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
+  </si>
+  <si>
+    <t>Number of private entrepreneurs supported and equipped with renewable energy solutions for the development of economical activities</t>
+  </si>
+  <si>
+    <t>78 young entrepreneurs were powered by solar panels (30 720W)</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t>Number of personnes supplied with domestic energy solutions for cooking</t>
+  </si>
+  <si>
+    <t>1530 people received biogas, improved stoves and solar cookers.</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of women's and young's groups supported and equipped with renewable energy solutions for the development agriculture</t>
+  </si>
+  <si>
+    <t>20 women's groups and 10 youth groups are supported by solar pumped water wells for the development of agricultural activities (14 000W)</t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of solar lamps supplied</t>
+  </si>
+  <si>
+    <t>1000 HH</t>
+  </si>
+  <si>
+    <t>877 solar lamps are provided to the population</t>
+  </si>
+  <si>
+    <t>Number of people supported by the solar dryers</t>
+  </si>
+  <si>
+    <t>198 people were supported by solar dryers</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>SEH Taxonomy</t>
-  </si>
-  <si>
-    <t>RISE Taxonomy</t>
-  </si>
-  <si>
-    <t>Flagship</t>
-  </si>
-  <si>
-    <t>Indirect Category</t>
-  </si>
-  <si>
-    <t>Indirect Taxonomy</t>
-  </si>
-  <si>
-    <t>Projet d’appui au développement d’offres énergétiques (Chad)</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00135028</t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>1 minigrid with a capacity of 78.5 kW is about to be installed</t>
-  </si>
-  <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
     <t>Renewable Energy</t>
   </si>
   <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Number of households receiving electricity from the mini grid</t>
-  </si>
-  <si>
-    <t>750 HH</t>
-  </si>
-  <si>
     <t>Accelerating just energy transition</t>
   </si>
   <si>
-    <t>Entrepreneurship Training</t>
-  </si>
-  <si>
-    <t>Number of private entrepreneurs supported and equipped with renewable energy solutions for the development of economical activities</t>
-  </si>
-  <si>
-    <t>78 young entrepreneurs were powered by solar panels (30 720W)</t>
-  </si>
-  <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
-    <t>Number of personnes supplied with domestic energy solutions for cooking</t>
-  </si>
-  <si>
-    <t>1530 people received biogas, improved stoves and solar cookers.</t>
-  </si>
-  <si>
     <t>Agricultural Services</t>
   </si>
   <si>
-    <t>Number of women's and young's groups supported and equipped with renewable energy solutions for the development agriculture</t>
-  </si>
-  <si>
-    <t>20 women's groups and 10 youth groups are supported by solar pumped water wells for the development of agricultural activities (14 000W)</t>
-  </si>
-  <si>
-    <t>Number of solar lamps supplied</t>
-  </si>
-  <si>
-    <t>1000 HH</t>
-  </si>
-  <si>
-    <t>877 solar lamps are provided to the population</t>
-  </si>
-  <si>
     <t>Other Energy Services</t>
   </si>
   <si>
-    <t>Number of people supported by the solar dryers</t>
-  </si>
-  <si>
-    <t>198 people were supported by solar dryers</t>
-  </si>
-  <si>
     <t>Number of minigrid installed</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -236,31 +281,28 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -276,12 +318,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,49 +367,26 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -376,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -386,21 +411,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -560,19 +570,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -582,13 +583,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -597,275 +598,267 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1172,315 +1165,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426DDE46-D124-44E0-9F8A-2398E5DAED48}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="A3:D8"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="72" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="72" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="92" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="72" customWidth="1"/>
-    <col min="6" max="6" width="35" style="82" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="94" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="82" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="82" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="72" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="72"/>
-    <col min="12" max="12" width="48.42578125" style="72" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="72"/>
-    <col min="14" max="14" width="18.5703125" style="72" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="72" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="72"/>
-    <col min="18" max="18" width="25" style="72" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="72"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="79" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A2" s="73">
+      <c r="S1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="45.75">
+      <c r="A2" s="45">
         <v>135028</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="76">
+      <c r="B2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="48">
         <v>1745000</v>
       </c>
-      <c r="E2" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="79">
+      <c r="E2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="50">
         <v>0</v>
       </c>
-      <c r="H2" s="80">
+      <c r="H2" s="51">
         <v>7.85E-2</v>
       </c>
-      <c r="I2" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="N2" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="30.75">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="78" t="s">
+      <c r="I2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="79">
+      <c r="J2" s="56"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="74"/>
+      <c r="N2" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="80"/>
+      <c r="V2" s="82"/>
+    </row>
+    <row r="3" spans="1:22" ht="45.75">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="50">
         <v>0</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="N3" s="82" t="s">
+      <c r="M3" s="74"/>
+      <c r="N3" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="60.75">
-      <c r="A4" s="102"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="97" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="T3" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="84">
+      <c r="U3" s="80"/>
+      <c r="V3" s="82"/>
+    </row>
+    <row r="4" spans="1:22" ht="60.75">
+      <c r="A4" s="66"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="54">
         <v>0</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="53">
         <v>150</v>
       </c>
-      <c r="I4" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="86"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-    </row>
-    <row r="5" spans="1:18" ht="30.75">
-      <c r="A5" s="102"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="79">
+      <c r="I4" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="74"/>
+      <c r="N4" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="82"/>
+    </row>
+    <row r="5" spans="1:22" ht="45.75">
+      <c r="A5" s="66"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="50">
         <v>0</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5" s="56">
         <v>15000</v>
       </c>
-      <c r="I5" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="86"/>
-      <c r="N5" s="82" t="s">
+      <c r="I5" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="55"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="74"/>
+      <c r="N5" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="60.75">
-      <c r="A6" s="102"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="84">
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="82"/>
+    </row>
+    <row r="6" spans="1:22" ht="60.75">
+      <c r="A6" s="66"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="54">
         <v>0</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="58">
         <v>50</v>
       </c>
-      <c r="I6" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="86"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-    </row>
-    <row r="7" spans="1:18" ht="30.75">
-      <c r="A7" s="102"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="79">
+      <c r="I6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="74"/>
+      <c r="N6" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="82"/>
+    </row>
+    <row r="7" spans="1:22" ht="45.75">
+      <c r="A7" s="66"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="50">
         <v>0</v>
       </c>
-      <c r="H7" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="86"/>
-      <c r="N7" s="82" t="s">
+      <c r="H7" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="74"/>
+      <c r="N7" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="30.75">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="79">
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="82"/>
+    </row>
+    <row r="8" spans="1:22" ht="45.75">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="50">
         <v>0</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="53">
         <v>198</v>
       </c>
-      <c r="I8" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="86"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="B9" s="82"/>
-      <c r="C9" s="91"/>
-      <c r="G9" s="93"/>
+      <c r="I8" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="74"/>
+      <c r="N8" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="82"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" s="1"/>
+      <c r="C9" s="59"/>
+      <c r="G9" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{8A54E6C1-C566-437A-AD88-AC9D4C56D22C}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{8170BA37-5274-479E-B728-BF9FB4CC0638}">
-      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{FD866FC2-148C-4CE0-B4F2-1FF0702F5EA9}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{A75483E5-2E31-4E46-B09E-1417BB8244A7}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N8" xr:uid="{97F91430-1522-4D50-9FAD-AB4658CD6974}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{FF823F31-73B6-495E-BCBF-2AB7A7C35102}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U8" xr:uid="{C9B4907D-1F71-45B7-ADDE-9C090FEB48C3}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{4A7FEC73-3EA5-4AD4-94A0-2B9E5246113A}">
+      <formula1>"Energy Access, Energy Transition"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8" xr:uid="{CF807B15-06CE-4424-B98E-1F73E4498F75}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L8" xr:uid="{C9A80E1E-BFE4-4C95-9AF3-869CA7DF984F}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T8" xr:uid="{C2438F6C-B037-4382-AF27-6F14ABD9EED3}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{BBF5F15E-D121-4207-BBB5-131A24339503}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1489,12 +1590,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF693F63-03AD-491D-AD62-727D26A86B0C}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E13</xm:sqref>
+          <xm:sqref>E9:E13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F7040B5-ACF5-4CB9-9A7B-37DDBECC5EA8}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1507,293 +1614,293 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="O2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="5"/>
-    <col min="12" max="12" width="48.42578125" style="5" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" style="5"/>
-    <col min="15" max="15" width="18.5703125" style="5" customWidth="1"/>
-    <col min="16" max="18" width="8.85546875" style="5"/>
-    <col min="19" max="19" width="25" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="48.42578125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" style="2"/>
+    <col min="15" max="15" width="18.5703125" style="2" customWidth="1"/>
+    <col min="16" max="18" width="8.85546875" style="2"/>
+    <col min="19" max="19" width="25" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="22" t="s">
+      <c r="K1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="48">
+    <row r="2" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="83">
         <v>135028</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="57">
+      <c r="B2" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="92">
         <v>1745000</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="38">
+      <c r="E2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="35">
         <v>0</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="36">
         <v>7.85E-2</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="O2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>24</v>
+      <c r="I2" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="O2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="49"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="25">
+      <c r="A3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="22">
         <v>0</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="O3" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-    </row>
-    <row r="4" spans="1:19" s="41" customFormat="1" ht="60.75">
-      <c r="A4" s="49"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="43">
+      <c r="H3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="O3" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+    </row>
+    <row r="4" spans="1:19" s="38" customFormat="1" ht="60.75">
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="40">
         <v>0</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="39">
         <v>150</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="1:19" s="38" customFormat="1" ht="30.75">
+      <c r="A5" s="84"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0</v>
+      </c>
+      <c r="H5" s="43">
+        <v>15000</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="42"/>
+      <c r="O5" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="60.75">
+      <c r="A6" s="84"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>50</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="42"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+    </row>
+    <row r="7" spans="1:19" s="38" customFormat="1">
+      <c r="A7" s="84"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:19" s="41" customFormat="1" ht="30.75">
-      <c r="A5" s="49"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="38">
+      <c r="F7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="35">
         <v>0</v>
       </c>
-      <c r="H5" s="46">
-        <v>15000</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="45"/>
-      <c r="O5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="60.75">
-      <c r="A6" s="49"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="H7" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="42"/>
+      <c r="O7" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="38" customFormat="1" ht="30.75">
+      <c r="A8" s="85"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="35">
         <v>0</v>
       </c>
-      <c r="H6" s="28">
-        <v>50</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="45"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-    </row>
-    <row r="7" spans="1:19" s="41" customFormat="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="45"/>
-      <c r="O7" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="41" customFormat="1" ht="30.75">
-      <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="38">
-        <v>0</v>
-      </c>
-      <c r="H8" s="42">
+      <c r="H8" s="39">
         <v>198</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="45"/>
+      <c r="I8" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="4"/>
-      <c r="C9" s="12"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1828,7 +1935,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F764197-5D55-4659-87ED-047B58B7C2C6}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E13</xm:sqref>
         </x14:dataValidation>
@@ -1843,210 +1950,210 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.95">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.95">
-      <c r="A2" s="61">
+      <c r="A2" s="96">
         <v>135028</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="63">
+      <c r="B2" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="98">
         <v>1745000</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="96"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>750</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="63.95">
+      <c r="A4" s="96"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>150</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.1">
+      <c r="A5" s="96"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>15000</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="63.95">
+      <c r="A6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>50</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.95">
+      <c r="A7" s="96"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G7" s="11">
         <v>0</v>
       </c>
-      <c r="H2" s="21">
-        <v>2</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="61"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="H7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.1">
+      <c r="A8" s="96"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="H3" s="21">
-        <v>750</v>
-      </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" ht="63.95">
-      <c r="A4" s="61"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="H8" s="12">
         <v>150</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32.1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>15000</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="63.95">
-      <c r="A6" s="61"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>50</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.95">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>150</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>43</v>
+      <c r="I8" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="4"/>
-      <c r="C9" s="12"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2064,7 +2171,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E13</xm:sqref>
         </x14:dataValidation>
@@ -2076,198 +2183,200 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="64"/>
-      <c r="B3" t="s">
+      <c r="B1" s="75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45.75">
+      <c r="A6" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="64"/>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="65"/>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="65"/>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="65"/>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="65"/>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="66"/>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="67"/>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="67"/>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
+      <c r="B21" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2516,6 +2625,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2528,11 +2646,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA903917-B6F3-48D5-8E13-468762282C8C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA903917-B6F3-48D5-8E13-468762282C8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
